--- a/500all/speech_level/speeches_CHRG-114hhrg94721.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94721.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400162</t>
   </si>
   <si>
-    <t>Raúl M. Grijalva</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Grijalva. Thank you very much. And I appreciate that very much, Mr. Chairman, to have a moment. This is her last week. And she will be sorely missed, and an institutional memory, and a drive for the issues, and a passion for the issues that we have jurisdiction over in this committee. It is a loss, but she leaves with a legacy of accomplishment, hard work, and, more importantly, having trained many Members of Congress that sit in this dais. Some of her class are doing well. And we are going to miss her deeply, sorely, and my colleagues and the staff that she has worked with, present and past, are all going to join in not only acknowledging her, but thanking her profoundly for the contributions she has made to this committee and to the issues we confront here. Thank you so much.    [Applause.]    The Chairman. We wish you well in your further endeavors because, let's face it, anything has to be better than this.    [Laughter.]    The Chairman. I am now going to recognize myself for an opening statement, and then we will go to the Ranking Member, then to the Vice Chair and the designee of the Ranking Member.    The Chairman. This is the first in what I plan to have as a series of oversight hearings this committee will undertake on policies involving the National Environmental Policy Act, a law that was enacted 45 years ago, before many here were born, and hasn't been revised since that time.    The focus of today's hearing is the White House Council on Environmental Quality's sweeping draft guidance on greenhouse gas emissions. On its face, the draft guidance acknowledges that it is not legally enforceable. Some may say that means it is unlawful. Despite not being legally enforceable, curiously, CEQ claims that the guidance will facilitate compliance and improve efficiency and consistency of existing NEPA reviews--literally, thousands of reviews annually.    Based upon the Federal Government's track record on NEPA, I am highly dubious, but will listen closely to the testimony today for evidence on whether or not that is, indeed, the case.    This draft guidance set the stage for potential sweeping Federal overreach, by pushing agencies to examine greenhouse gas emissions that are beyond their ability to control or regulate the impacts, including the vast array of all upstream and downstream impacts. The draft guidance is overly broad, expansive, it goes outside the scope of NEPA. Otherwise, it is OK. For NEPA to work correctly, Federal agencies must be able to affect the outcome of the proposed projects.    But the draft guidance goes far beyond what an agency can control. The results will force more delays, more costs onto economic and energy-related activities nationwide, and uncertainty for those who want to balance the needs important to all Americans with protecting the environment. The draft guidance would even frustrate the Administration's other goals, such as modernizing the Nation's electric grid, to improve energy reliability and resiliency.    The trend for this Administration seems to be that the end justifies the means, regardless of whether the law allows it. This draft guidance is the latest case in point. CEQ states as a fact that ``Many agency NEPA analyses have concluded that greenhouse gas emissions from an individual agency action will have small, if any, potential climate change effects. Government action occurs incrementally, program by program and step by step, and climate impacts are not attributable to any single action, but are exacerbated by a series of smaller decisions, including decisions made by the government.''    Even though they say that, CEQ then concludes that being a small impact is not a good-enough reason not to consider everything that could possibly impact any climate change in any NEPA analysis. Federal agencies have jurisdictional limits. They cannot possibly consider the entire range of climate impacts of things outside their jurisdiction under existing NEPA guidelines.    CEQ acknowledges the limits of the guidance when it says, ``This guidance is not a rule or regulation, it does not change or substitute for any law, regulation, or other legally binding requirement. It is not legally enforceable, and does not establish legally binding requirements in and of itself.'' Which begs the question, ``Then why do it? ''    Clearly, for an administration that advocates climate change policies as more pressing than national security threats, the answer is, regardless of its enforceability, the end justifies the means. They could not get the cap and trade passed by Congress, so now they address climate change by forcing it through the NEPA process by unlawful guidance.    CEQ is bound by the statutes. Therefore, any environmental review conducted by an agency is bound by the statutorily prescribed mission and jurisdiction limits of the permitting agency. In the absence of congressional action to expand the scope of the environmental review for Federal agencies by expanding their jurisdiction, agencies, including CEQ, are stuck with the recognition that greenhouse gas emissions from an individual Federal agency action will have small, if any, potential climate change effects.    Numerous and exhaustive NEPA analyses agree, and imposing hugely costly and lengthy new analyses will not change that. With that, I kind of look forward to hearing from our witnesses today, and hope that the Obama administration will recognize this guidance should be withdrawn.</t>
   </si>
   <si>
@@ -67,18 +64,12 @@
     <t>412294</t>
   </si>
   <si>
-    <t>Cynthia M. Lummis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Lummis. Good morning, Mr. Chairman, and thank you for holding this hearing.    Look, major Federal decisions should be informed by an understanding of how they impact our environment. That is the simple idea behind NEPA. NEPA requires the Federal Government to take a hard look at the environmental impacts of Federal actions and projects. There has to be a causal relationship between a project and the alleged impacts.    But CEQ's revised draft guidance on greenhouse gas emissions turns this upside down. The new guidance assumes that any greenhouse gas emissions contribute to global climate change, and so they are environmental impacts.    Now, indulge me this indelicate statement, Mr. Chairman. I emit greenhouse gases. You emit greenhouse gases. The Ranking Member, our panelists, we all emit greenhouse gases. You can measure our emissions with a high degree of accuracy. What is difficult, but not--in fact, what is difficult, but perhaps impossible to measure is how much our emissions actually contribute to global warming, or global cooling, or other global climate changes that impact our environment.    As our experts will reveal today, this connection is difficult enough to make, even if you analyze the greenhouse gas emissions of the entire United States. Yet CEQ is now telling agencies that if a project emits greenhouse gases, it is a de facto environmental impact. That will lead to project delays, project modifications, added costs, mitigation costs, and, in some cases, even project denials. From public lands permits, to energy production, to roads and pipelines, there isn't a corner of the United States that isn't touched by this new guidance, and the costs could be enormous.    This so-called guidance didn't even go through rulemaking, which is astounding when you consider its economic impacts.    I look forward to the hearing. I look forward to listening to our panelists today. Some will question the science and legal basis for this draft guidance.    I have with me here somewhere a copy of NEPA. I brought it with me. Six pages. Well, it barely goes over to the seventh page. Six pages, the National Environmental Policy Act. It is supposed to inform Federal decisions, not dictate them. But, after 45 years of agencies and courts reading more and more requirements into NEPA, this six-page bill has generated reams of paperwork that created lots of greenhouse gases--so many greenhouse gases that it could fill the halls of Congress and then some.    Some of this paperwork has likely produced environmental benefits, but much of it is duplicative and unnecessary. CEQ's draft guidance is a prime example. This guidance will create far more paperwork and greenhouse gases than environmental benefits, regardless of one's position on global warming.    We need to recognize, Mr. Chairman, that NEPA procedure has become so time-consuming, so costly, and so fraught with litigation that, in many cases, the process alone dictates outcomes. Only then can we have a reasonable conversation about how the 45-year-old NEPA could better serve our environmental needs in the 21st century.    Thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman. Before I begin my statement, I do want to recognize a committee staff member here, Jean, who is going to be retiring. When we were in the Majority, some time ago, I was the Chair of the Subcommittee on Fisheries, Wildlife, Oceans and Insular Affairs, and Jean, here, provided all the guidance I needed. I was new, and she certainly was very professional in her ways. And not only was she a professional committee staffer, but she was my friend. So we are going to miss her.</t>
   </si>
   <si>
@@ -91,30 +82,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goldfuss</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Goldfuss. Good morning, Chairman Bishop, Ranking Member Grijalva. And just a quick note to Jean, thank you for all of your work. You are a true environmental champion, and we are so sad, so sad that you are leaving this committee. Thank you for the opportunity to appear before you today to discuss CEQ's efforts to modernize NEPA through proposed guidance on the consideration of greenhouse gas emissions and the effects of climate change in NEPA reviews. We at CEQ are proud of this guidance, and we welcome the opportunity to speak to you about it today.    As you know, and has been mentioned, NEPA calls on agencies to consider the potential environmental impacts of their actions when making decisions to quote the statute which, really, was before its time. The law was established to declare a national policy which will encourage productive and enjoyable harmony between man and his environment, to promote efforts which will prevent or eliminate damage to the environment and biosphere, and stimulate the health and welfare of man, and to enrich the understanding of the ecological systems and natural resources important to the Nation.    In short, NEPA asks agencies, and requires agencies, to look before they leap. It allows agencies the flexibility to consider environmental impacts in a reasonable and measured manner. It allows them to focus on issues that are important, hear from all stakeholders, and exercise their professional judgment in projecting environmental impacts.    CEQ's draft GHG guidance will add further predictability to the NEPA process by clarifying for agencies and project sponsors how to account for climate change as part of environmental reviews. It provides a reasoned and transparent approach that will enable them to make more informed decisions. This guidance reflects our latest effort to help agencies complete environmental reviews consistently, efficiently, and openly under the existing NEPA framework.    We know that a changing climate is a reality, and carbon pollution is the biggest driver of climate change. We also know that Federal actions can contribute to emissions, and that climate change affects agencies and their actions. And we know that consideration of climate change falls squarely within the scope of NEPA. And Federal courts across multiple circuits have considered various approaches to this analysis.    Where the courts differ, and what agencies have been wrestling with for years, however, is how climate change should be considered in NEPA reviews. Our guidance offers a consistent approach that increases certainty and preserves agency discretion. This makes it easier and faster for agencies to prepare reviews and will reduce the threat of litigation, which can be costly and cause further delay.    I want to be clear about something, as I think it often gets lost when we talk about NEPA generally or specifically with relation to the greenhouse gas guidance. NEPA's requirements focus on the process by which agencies consider the impacts of their actions, not on the outcomes. It does not require agencies to make an environmentally preferred decision, or to reject certain projects. The guidance is simply about transparency and informed decisionmaking. I like to think of it like the calorie count on a box of cereal. Just like nothing prevents a consumer from selecting the most calorie-intensive alternative, nothing about our guidance requires an agency to select the least greenhouse gas-intensive alternative.    The guidance does not regulate emissions, direct agencies to prohibit emissions-intensive projects, or mandate that agencies select the alternative with the least emissions. What the guidance does do is put an end to delays caused by hand-wringing over whether climate change should be addressed, or how to address it. Our guidance provides a consistent framework for how agencies can consider climate impacts.    Specifically in the guidance we encourage agencies to focus their analysis on those actions involving large levels of emissions which are most likely to raise climate issues. We encourage agencies to use existing GHG estimation tools, rather than attempting to build their own. We advise agencies to consider the potential effects of climate change, such as flooding or drought, early in the project planning process. And we emphasize that agencies should rely on existing assessments and reports on climate change, rather than conducting their own research.    As always under NEPA, agencies must focus their analysis on reasonably foreseeable direct, indirect, and cumulative impacts, as a project; limit their analysis on what is necessary, given the scope of the project; and avoid speculation. We remain confident that this guidance will bring greater clarity on when, why, and how the NEPA process should apply to climate change issues.    Mr. Chairman and Ranking Member Grijalva, and members of the committee, I am proud of what CEQ has accomplished over the past 5 years to modernize and reinvigorate NEPA and the NEPA process. I appreciate the opportunity to present to you today, and I look forward to your questions. Thank you.</t>
   </si>
   <si>
-    <t>Martella</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Martella. Thank you, Chairman Bishop, Ranking Member Grijalva, and for the whole committee, for the honor to appear before you at this important hearing.    For 45 years, NEPA has served as the broadest, most diverse shield of environmental protection in the United States.    Ranking Member, I agree with your statement that it really is the bedrock of environmental law. And it has probably realized more benefits per word of statutory text in the six pages than any other statute.    But while it was enacted as a shield, it has also been transformed by some into a secondary purpose that was unintended by Congress, which is as a sword intended to block projects, delay projects, and cancel projects. So, what we want to talk about today is this balance, focusing on NEPA being a shield to protect the environment, to assess greenhouse gases, assess climate change and environmental impacts, but not furthering this secondary purpose that some have adopted, to make it a sword that will block projects that are critically important to our energy independence, modern energy infrastructure, and the various goals that the Obama administration is pursuing to address climate change.    And, as NEPA is entering middle age--and there has been some discussion about how old NEPA is; I was born the same year NEPA was enacted, so I can fairly say it is middle-aged--it is struggling to keep up with applying these older tools to address modern problems. And no example of that is better than climate change.    As the Chairman pointed out, NEPA has not been amended since 1970, but we are asking it now to address greenhouse gases and climate change, like we are asking several other statutes to do. NEPA was designed to address specific projects in specific areas, and look at the local and regional impacts of those projects. As we know, climate change is a global issue. It is an issue where you have almost an infinite amount of sources around the world contributing to a single concern. That is not something that syncs up very well with NEPA. So, the question today is how do we go about reconciling these two things.    I want to say at the outset I am in agreement with, I think, the two fundamental principles that the Director has shared, and that the guidance does. I do agree that an analysis of greenhouse gases is appropriate under NEPA for certain projects that do impact greenhouse gases. I don't dispute that; that is what the courts have--that is where the courts have been going, and what they have been saying.    I also do recognize the importance of guidance. I think it can be helpful to the decisionmakers, to the courts, to the stakeholders, to get guidance from CEQ, appropriate guidance on how to look at this kind of 1970s tool and how it should be addressing the modern concerns associated with climate change. So I am in agreement on those two issues.    But, as I say in my written testimony, I do think there are five ways that the guidance gets it wrong, and should be doing it better. And I am not going to go through all five in the brief time here, but I do want to focus on the first three. And the first one, importantly, is how the guidance goes beyond CEQ's own regulations. CEQ's regulations require an analysis of direct, indirect, and cumulative impacts.    But the guidance goes much further than that, and it says, beyond those, you have to consider all the upstream impacts of a decision, and all the downstream impacts of the decision. And it gives an example of a mine, and says you not only have to look at the impacts of a mine--I agree, we should look at the greenhouse gas impacts of that mine--but you have to go all the way downstream, to look at the transportation of the resources, the refining of the resources, the ultimate combustion or utilization of the resources. And that goes far beyond the CEQ regulations, and you can't amend a regulation with the guidance.    I was interested to read the Director's testimony, where, on page four, there is more that I agree with there than I did in the actual guidance. And maybe there is some refinement going on, which would be welcomed.    The second fundamental issue I want to raise has to do with the CEQ's applying a one-size-fits-all guidance to all types of decisions: land decisions, resource decisions. Encompassed in this guidance are forestry decisions, grazing decisions, oil and gas permits, export terminals, railroad spurs, highways, and bridges, and things like that. And, for something like climate change, we simply can't have a one-size-fits-all guidance that applies to all those actions. That is just going to lead to confusion, unnecessary interpretation, litigation risk, delays, and, again, the potential to frustrate these very important projects that are key to our energy independence and a modern energy infrastructure.    I think what CEQ should do--and with respect--would be to develop guidance that is specific for these sectors, as opposed to a one-size-fits-all approach, which is misleading.    Then, the third thing I wanted to emphasize is the reliance on the social cost of carbon. At the outset, I am not sure why the social cost of carbon is even relevant under the law to this. But even if you were to engage in some social cost of carbon analysis, by no means should they be relying on the OMB social cost of carbon. The OMB social cost of carbon metrics, I think, are probably the single least transparent decisionmaking in the environmental area in this administration. It is the antithesis of NEPA, that a bunch of agencies, kind of behind closed doors in a black box, developed these figures without any public participation and input, and it goes against everything NEPA stands for, when it comes to public participation. So the social cost of carbon should not be referred to in the NEPA analysis.    The other arguments are--the other positions are in the written testimony. But with respect, in just 10 seconds, I do want to repeat Chairman Bishop's statement that I do believe, in the interim, that the guidance should be withdrawn while these concerns are addressed. Even though it is a draft guidance, other Federal agencies--even the courts look to anything CEQ says with significant deference. It is having an impact in the short term. So, I would recommend and request that the guidance be withdrawn while these issues are addressed, and these other guidances are developed. Thank you very much.</t>
   </si>
   <si>
-    <t>Christy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Christy. Thank you, Chairman Bishop for this opportunity, and Ranking Member Grijalva, I hope your investigation has found me to be an independently minded climate scientist.    I am John Christy, a professor of atmospheric science at the University of Alabama in Huntsville--we don't play football at my campus--an Alabama State climatologist. I have served in many climate capacities, including as a lead author of the United Nations IPCC.    My research might best be described as building data sets from scratch to advance our understanding of what the climate is doing, and why it does what it does. The main point of my testimony is simple; there is no causal link between the elimination of any single project and changes in the global climate. Thus, no individual project should be held up, due to climate change concerns.    But let me go much, much further. Suppose the United States closed everything and ceased to exist on this day, May 13, 2015. No people, no cars, no industry, no utilities. Climate models tell us the result of this imaginary scenario in 50 years might be a few hundredths of a degree, an amount smaller than the amount by which the global temperature already bounces around from one month to the next. The impact would be so small as to be unattributable to regulations. This result is well known, as described in my written testimony. I have presented similar calculations in Federal court that went uncontested.    But we should back up a bit and address the presumed causal link between CO2 emissions and climate change. You know, we monitor the climate for such variables as temperature. What we do not have is a direct and observable means to tell us why those changes occur. Our thermometers only tell us what has happened; they do not tell us why it happened.    To understand why these changes occur, we use climate models whose equations attempt to contain all of the important factors that affect climate. If they are accurate, we can then see how each factor, such as rising greenhouse gases, affects the climate and whether CO2 would be the cause of the changes we see.    [Slide]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Christy. As shown in my written testimony, and up on the chart here, the models failed the simplest validation test. They can't even reproduce what has already happened. All 102 model runs warm up the planet more than has actually occurred in the past 36 years. On average, the warming rate of the atmosphere in these models is three times reality. As a consequence, our science has not established the causal link between CO2 emissions and what the climate is actually doing.    Therefore, emissions cannot be used as a proxy for climate change. Further, the CEQ guidance gives a list of weather and climate events it claims are increasing, due to extra greenhouse gases. But, as demonstrated in my written testimony, several of these phenomena have shown no change, while CO2 emissions have risen. So there is no proof of a link. This evidence indicates that it has not been established that CO2 emissions have a confident and quantifiable causal link to climate change, whether one is talking about global temperature or about disruptive weather events.    Now, it is no secret that the state of Alabama is in a desperate fight with the Federal EPA. Our elected officials understand, as do I, their State Climatologist, that the regulations being established will do nothing to alter whatever the climate is going to do. We are fighting for our industries, which are being tempted by lower costs in Mexico and China, where their emissions will actually rise. We are fighting for our utilities, which sell over 30 percent of their electricity production to nearby states who need it. And we are fighting for the many poor people in our state who do not need another hike in their utility bills to satisfy a regulation whose only demonstrable impact will be this further drain on their meager resources.    This is a time when even so-called green countries like Germany and Japan are adding to their carbon emissions by building more coal-fired power plants, while the rest of the world is moving forward with affordable carbon-based energy. It simply does not seem to me to be scientifically justifiable or economically rational that this Nation should establish regulations whose only discernable consequence is an increase in economic pain visited most directly and harshly on the poorest among us.    Thank you.</t>
   </si>
   <si>
-    <t>Clark</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clark. Good morning, Chairman Bishop, Ranking Member Grijalva, and members of the committee. Thank you for the opportunity to appear before you today to discuss this revised draft guidance for the Federal departments and agencies on the consideration of greenhouse gas emissions and the effects of climate change and NEPA reviews.    I began my career at an Army installation over 35 years ago, helping develop the first environmental program at that installation. I wrote and reviewed NEPA analyses as a part of that and, before I left, I was responsible for the power production and energy program at the facility, as well as the management of the natural resources and environmental program.    During that period, the Army constructed a chemical decontamination training facility, the only one in the world, and I headed up a team that prepared the NEPA analysis and was responsible for getting that facility permitted. In 1985, I moved to the Assistant Chief Engineer's office at the Pentagon, and then to the Secretary of the Army's office. I wrote the Army's first NEPA regulation during this period, and was part of a senior-level team that prepared the EISs to destroy chemical weapons, and to advance the Army's biological defense research program, and all the analysis for base closure and realignment, and many other controversial and necessary programs for national defense.    In 1992, during the President George H.W. Bush administration, I was asked to come to the Council on Environmental Quality, and was asked to stay after President Clinton took office. Part of my job at CEQ was to develop NEPA guidance on topics such as cumulative effects analysis. But most of my career has been related to environmental policy around matters such as Army infrastructure, environmental programs, and policy development.    In 1999, President Clinton appointed me as the Principal Deputy Assistant Secretary for Installations and Environment at the Army. And, at the end of the Clinton administration, I was asked by Secretary Rumsfeld to stay over and help with the transition of his facilities team.    The firm I developed in 2001 worked on a number of Federal agencies' NEPA analyses, and I have worked ever since, trying to improve the management of NEPA analysis.    I think people will tell you that I am not a fan of voluminous documents, nor am I a fan of unnecessary delay. I developed a program at Duke University in the Duke Environmental Leadership Program to teach young and emerging leaders how to develop programs that were based on better decisions, not better documents. I led that program for over 20 years.    I come to address this committee on whether or not I think CEQ guidance incorporating climate change is appropriate, and whether or not such analysis can be done in a practical and timely manner. Finally, to provide my honest assessment of what I would advise a client who will face this guidance. And I have at least one client who probably will.    I do support CEQ providing the agencies with guidance on how to incorporate climate change in the NEPA analysis. It was this House Merchant Marine and Fisheries Committee, more than 45 years ago, that reported out a bill to require that we use new and emerging science about the environment to advise decisionmakers within government about courses of action. It was this committee that responded to the anomalies like rivers catching fire, oil spills along our coast, garbage piles in our cities, and ``No Swimming'' signs along many of our coasts. It was this committee that shepherded NEPA through the legislative process, and got it passed by a margin that was supported by both parties.    One of the major contributions to the statute was the Chairman of the House Merchant Marine and Fisheries Committee's insistence that there be established a Council on Environmental Quality in the Executive Office of the President.    Climate change falls squarely in the consideration in a NEPA analysis. Scientists and the Supreme Court have said that greenhouse gases are precisely the kind of issues that NEPA and CEQ regulations intended for agencies to assess.    While many may say that few agencies are going to emit anything significant, the truth is that it may be individually minor, but it is the collective number of small actions, whether positive or negative, that may lead to a cumulative significant impact.    It is important that agencies should understand the impacts that climate change will have on Federal facilities, and think about how to design and site facilities. Most agencies are already doing this, based on their own understanding of resilience and adaptation.    I support CEQ's efforts, because I think it is about better government. Government is supposed to answer to its citizens and be transparent. NEPA has helped communities get answers from the Federal agencies operating in their communities. In many ways, that is NEPA's major success.    I support CEQ's efforts because I think it will lead to better investments. The government is, after all, using other people's money. The money we spent to build facilities in the Army went through a long and arduous process to get approval. And, while I was there, many of these proposals were disapproved, frankly, because some of them were just dumb ideas.    I will just conclude, Mr. Chairman, that I support CEQ's efforts because I think it will lead to better decisions, not better documents. The purpose of NEPA is to make sure that, in any proposal that is undertaken by agencies, they balance all the costs, from the mission to the social and the environmental costs. And many agencies, including my own Army, is already moving out on this, whether we do anything about this, or not. If not guidance----    The Chairman. Sir, you have to conclude in one sentence, please.</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>400440</t>
   </si>
   <si>
-    <t>Don Young</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Young. Thank you, Mr. Chairman.    Director, I am deeply concerned about this. I have been around here long enough to watch the CEQ work, and I am somewhat concerned about--we are trying to build a gas line in Alaska. We have five different agencies that will be involved. And you keep saying this is not a regulation, it is not a rule. But the gentleman just mentioned a moment ago, I have never seen an agency that goes through a recommendation from the White House, because the Secretary will get fired. It's that simple. So, they do follow it. Whether they do it subconsciously or consciously, I don't know, but I just know--go back to the court action.    Maybe something, if, let's say, an agency doesn't follow your recommendations--you say it is a recommendation. And the Sierra Club, one of my favorite agencies--I say it is an agency because they have more staff than your agency does, by the way--they will file suit against the Fish and Wildlife or against the Corps of Engineers or against FERC, and that delays the project. Why are we doing this, if that is the case? I mean is there any safety that says this won't happen?</t>
   </si>
   <si>
@@ -334,9 +310,6 @@
     <t>412191</t>
   </si>
   <si>
-    <t>Doug Lamborn</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lamborn. Ms. Goldfuss, you said that the revised draft guidance will not--I will start over, thank you. If you could, start the clock over.    [Laughter.]</t>
   </si>
   <si>
@@ -394,9 +367,6 @@
     <t>412254</t>
   </si>
   <si>
-    <t>Niki Tsongas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman, and thank you all for appearing before the committee today.    To reiterate, the bill that we are talking about today, the National Environmental Policy Act, is one of our Nation's bedrock environmental laws, crafted on a bipartisan basis by Congress, signed into law by President Nixon, this committee having played a very important role. NEPA has informed Federal decisionmaking and increased transparency for over 40 years. It is the starting point for evaluating the environmental impacts of Federal action.    NEPA does not dictate decisionmaking or project choices, nor does it require Federal agencies to elevate environmental concerns above all others. Instead, it simply makes sure that agencies have all the necessary information on potential environmental impacts, and consider alternatives before moving forward with a Federal project.    To put it simply, NEPA makes sure we ``look before we leap,'' and are using our taxpayer dollars wisely. It is also one of the primary ways through which the public is able to participate in the Federal decisionmaking process, fulfilling the fundamental right of American citizens to have a voice regarding a proposed Federal project. We hear much on this committee about the conflict between states and the Federal Government. But, in essence, NEPA ensures that the Federal Government is a good neighbor, giving its neighbors a chance to be heard on Federal actions.    So, I strongly support the Administration's efforts to better incorporate the impacts of climate change in the NEPA review process. Climate change is a critical generational issue that we cannot ignore. The proposed guidance that we are discussing today will increase predictability and certainty for Federal agencies, state, and local governments, not least the Defense Department, private businesses, and the public, on how climate change impacts will be considered as part of NEPA. Our Federal courts have also overwhelmingly determined that this is something that we need to do.    Mr. Clark, I want to thank you for appearing before this committee today and sharing your expertise. As Ms. Bordallo is, I am also a member of the Armed Services Committee, so I particularly appreciated the fact that, in your testimony, you stated that the Army considers the impacts of sea-level rise, storm surge, and increasing frequency of drought when studying where and how to build facilities.    I know when I first went on to that committee, I was very impressed with the ways in which the different services were really in leadership positions of taking into account the impacts of climate change. And it is my hope, as you referenced in your testimony, that as they deal with this through the NEPA process, that they will create templates for other agencies to follow.    But from your experience, having served in both Republican and Democratic administrations, if we don't conduct careful planning, could the impacts of climate change negatively impact military readiness? We know that they certainly deal with it in national security framework, but could it impact military readiness?</t>
   </si>
   <si>
@@ -421,9 +391,6 @@
     <t>412255</t>
   </si>
   <si>
-    <t>Robert J. Wittman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wittman. Thank you, Mr. Chairman. I want to present a question to the entire panel. I just want to get in my mind the magnitude of what we are talking about here, in looking at reducing the impact of emissions on global climate change. And how much would the United States have to reduce its emissions to have an impact on overall global emissions? And would there be a noticeable impact on the environment if no other nation did the same?    In other words, if we were the sole entity to reduce our emissions, what would the total impact be on the conditions that we assert would be affected by this? Sea-level rises, the overall average temperature change, plus or minus. Panel members, can you give me a perspective on what would happen under that scenario?</t>
   </si>
   <si>
@@ -475,9 +442,6 @@
     <t>412511</t>
   </si>
   <si>
-    <t>Jared Huffman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huffman. Thank you, Mr. Chairman. And thanks to the witnesses.    It was very interesting for me to hear a scientist tell us, ``We don't know the effects of greenhouse gases on the climate,'' and that prompted me to just quickly do a Google search to look at what NASA has to say on the subject. And the NASA Web site right here says multiple studies published in peer-reviewed journals show 97 percent or more of the climate scientists in the world agree to a very different proposition than what we heard today, that, in fact, human activities and greenhouse gas emissions are contributing to climate change and global warming.    So, I want to congratulate the Majority for finding a scientist with this unique, contrarian view. I suppose, if we looked hard enough, we could find a cardiologist who would tell us that chocolate cake is good for us. But when there is such an overwhelming scientific consensus--you know, just a thought--we might want to hear scientific testimony that reflects that.    There has been some question about the need for this CEQ guidance, Director Goldfuss. And I just wanted to ask you now, courts have looked at the question of whether NEPA requires consideration of climate change matters. And, by my count, I found about 27 cases that have held that various Federal agencies must consider climate change in their NEPA analysis. There is one case out there that disagrees, but does that sound about right to you, that the Federal courts are weighing in 27 to 1 that this must be included in NEPA?</t>
   </si>
   <si>
@@ -523,9 +487,6 @@
     <t>400651</t>
   </si>
   <si>
-    <t>Louie Gohmert</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gohmert. Thank you, Mr. Chairman, and I appreciate the witnesses being here. I was just curious, in considering the kind of questions you have just been asked, and the questions that you often get, Professor Christy, do you ever feel like Galileo?</t>
   </si>
   <si>
@@ -580,9 +541,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman. And thank you to the witnesses. Although I am not a lawyer, I do feel I should take 10 seconds to defend the rule of law.    I understand what makes our democracy endure is that we are a nation of laws, and that there are many tragic examples today of dystopic countries that do not have the rule of law: North Korea, Somalia, Sudan. A quick aside.    Ms. Goldfuss, Mr. Martella had written that ``GHGs are well-mixed, global pollutants emitted by countless sources. As a result, the relative and proportional climate change impacts of emissions associated with any given Federal action will be infinitesimally small.''    Then, Dr. Christy testified that if we close the USA, a few hundredths of a degree.    These statements seem to ignore the leadership role of the United States, that the laws and regulations we pass, the actions we take, do affect what other countries will do. I have been trying to think of the best analogy. There are many, but I keep coming up with is it OK to throw one beer can out the window, because there will be a lot of other beer cans thrown out the window, so it is OK for me to do it.    Can you tell me what the big picture is for CEQ if any one plant is really not going to make any difference?</t>
   </si>
   <si>
@@ -610,9 +568,6 @@
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Fleming. Thank you, Mr. Chairman. And let me say, first of all, as a physician who has practiced 40 years, including cardiology, I can say that chocolate cake is good for you. But I don't recommend eating in excess. Nor do I recommend eating kale in excess, either.    [Laughter.]</t>
   </si>
   <si>
@@ -679,9 +634,6 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. Thank you, Mr. Chair. Dr. Christy, I am a little confused, so I just really want some quick clarification.    In an earlier statement today you said that you did not believe in a causal link between carbon dioxide, CO2, and climate change. In fact, I think you said that thermometers say that temperatures have gone up, but they don't say why. Is that accurate?</t>
   </si>
   <si>
@@ -751,9 +703,6 @@
     <t>412317</t>
   </si>
   <si>
-    <t>Glenn Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Chairman. Well, just for the record, let me say I would hope that NEPA would include the social cost of government bureaucracy and the impact on individual lives and, quite frankly, there be a requirement that we use transparent science in setting that.    Mr. Martella, I have a series of questions for you. Would you consider a CEQ guidance that addresses programmatic environmental reviews as procedural in nature?</t>
   </si>
   <si>
@@ -790,9 +739,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you. Ms. Goldfuss, as my home state of California grapples with a fourth consecutive year of drought, it is no secret that climate change is real, and is already having a negative impact on California's water resources. From reduced snow pack to a rising sea level, warming temperatures will continue to strain our state's water storage capacity, as well as posing a threat to millions of acres of farmland.    And as this demand for water supply continues to grow, we urgently need to invest in and upgrade our water infrastructure. As a former mayor, I know, from firsthand experience, that our local government budgets lack the resources for the planning and permitting of vital projects.    Can you expand on how the NEPA process can streamline the permitting and planning process across all levels of government, to ensure that local and state governments can build projects that increase efficiency and make our economies more competitive?</t>
   </si>
   <si>
@@ -817,9 +763,6 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you, Mr. Chairman.    Director Goldfuss, I would like a little bit more information about your agency. Maybe I just don't understand it well. Do you advise the Administration on environmental policies besides the other different, the other agencies? Do you advise the Administration, as well?</t>
   </si>
   <si>
@@ -922,9 +865,6 @@
     <t>412308</t>
   </si>
   <si>
-    <t>Jared Polis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Polis. Thank you, Mr. Chair.    Director Goldfuss, I come from the town of Boulder, Colorado. We had unprecedented floods in the year 2013, six people died and tens--hundreds of millions of dollars in property damage, public and private. We have seen similar unprecedented catastrophes across the country and the world, and science has shown that natural disasters are more common and more severe and more detrimental than they have been. Might take longer to conclusively establish that trend, but we have certainly seen a short-term trend in that direction. And, whatever you want to call that, it seems we ought to plan for it.    We have a responsibility to ensure taxpayer-funded development is done in the most informed and effective way possible, not only so we can mitigate against any negative environmental impacts, but so that we can ensure our communities are prepared for the intensity of future storms or weather patterns, and are adept in dealing with their effects.    I was hoping that you could speak to weather, and how the need for Federal consideration of increasingly severe and threatening weather patterns when considering new developments went into CEQ's calculus as the guidelines were developed.</t>
   </si>
   <si>
@@ -949,9 +889,6 @@
     <t>412397</t>
   </si>
   <si>
-    <t>Paul A. Gosar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Gosar. Mr. Clark, did I just hear you say you wouldn't take new data in?</t>
   </si>
   <si>
@@ -1039,9 +976,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman. I have a question for Director Goldfuss.    You did state rather emphatically, and included in your written testimony, that carbon pollution is the biggest driver of climate change. You know, that obviously is debatable. It has been debated here quite a bit today. But I want to go past that, and I want to pretend with you that carbon is arch enemy number one. And I want to talk through some of the issues in your draft, because I believe, as proposed, your calorie counter will make the atmosphere fat with carbon and defeat your purpose to reduce carbon.    I have a fitness app on my phone. I think it is called Fitness Pal. So if we had a CEQ app on our smartphone called Carbon Pal, how would it register current management of Federal lands? Would it show that they are sequestering more carbon? More of a sync? Are they more of an emitter?</t>
   </si>
   <si>
@@ -1084,9 +1018,6 @@
     <t>400618</t>
   </si>
   <si>
-    <t>Jim Costa</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Costa. I am ready.    The Chairman. Mr. Costa, you are recognized.</t>
   </si>
   <si>
@@ -1121,9 +1052,6 @@
   </si>
   <si>
     <t>412623</t>
-  </si>
-  <si>
-    <t>Jody B. Hice</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Hice. Thank you, Mr. Chairman.    Dr. Christy, I know you said it perhaps in jest a little bit, but I would agree that prayer is probably the most effective thing we can do for a drought. We certainly can't legislate the rain to come.    Mr. Gosar brought this up a while ago, about one of the purposes of NEPA is transparency. The draft guidance suggests that agencies incorporate the social cost of carbon into the NEPA review documents. Just your opinion, was the social cost of carbon created in a transparent manner, Dr. Christy?</t>
@@ -1693,11 +1621,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1719,11 +1645,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1745,11 +1669,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1769,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1795,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1821,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1847,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1873,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1899,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1925,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1951,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1977,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2003,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2029,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2055,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2081,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2107,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2133,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2159,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2185,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2211,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2237,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2263,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2289,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2315,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2341,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2367,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2393,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2419,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2445,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2471,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2497,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2523,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2549,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2575,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2601,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2627,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2653,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2679,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2705,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2731,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2757,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2783,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2809,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2835,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2861,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2887,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2913,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>24</v>
-      </c>
-      <c r="G49" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2939,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2965,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G51" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2991,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3017,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3043,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3069,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3095,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3121,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>24</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3147,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3173,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3199,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>16</v>
-      </c>
-      <c r="G60" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3225,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3251,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3277,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3303,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3329,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3355,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
-      </c>
-      <c r="G66" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3381,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>24</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3407,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3433,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>24</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3459,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3485,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>24</v>
-      </c>
-      <c r="G71" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3511,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>85</v>
-      </c>
-      <c r="G72" t="s">
-        <v>86</v>
-      </c>
-      <c r="H72" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3537,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>24</v>
-      </c>
-      <c r="G73" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3563,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>85</v>
-      </c>
-      <c r="G74" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3589,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>85</v>
-      </c>
-      <c r="G75" t="s">
-        <v>86</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3617,11 +3397,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3641,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3667,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>24</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3695,11 +3469,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3719,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>24</v>
-      </c>
-      <c r="G80" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3747,11 +3517,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3771,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>24</v>
-      </c>
-      <c r="G82" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3799,11 +3565,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3823,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3849,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3875,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3901,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3927,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3953,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3979,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>24</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4005,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
+        <v>97</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
         <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
-      <c r="H91" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4031,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
-      </c>
-      <c r="G92" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4057,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4083,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>24</v>
-      </c>
-      <c r="G94" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4109,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4135,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>24</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4161,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4187,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>24</v>
-      </c>
-      <c r="G98" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4213,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4239,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4265,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>105</v>
-      </c>
-      <c r="G101" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4291,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>125</v>
-      </c>
-      <c r="G102" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4317,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4343,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>125</v>
-      </c>
-      <c r="G104" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4369,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4395,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>125</v>
-      </c>
-      <c r="G106" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4421,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4447,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>125</v>
-      </c>
-      <c r="G108" t="s">
-        <v>126</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4473,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4499,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4525,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4551,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4577,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4603,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4629,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
-      </c>
-      <c r="G115" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4655,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4681,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>134</v>
-      </c>
-      <c r="G117" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4707,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>24</v>
-      </c>
-      <c r="G118" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4733,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>134</v>
-      </c>
-      <c r="G119" t="s">
+        <v>124</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
         <v>135</v>
-      </c>
-      <c r="H119" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4759,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>24</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4785,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
-      </c>
-      <c r="G121" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4811,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>24</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4837,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4863,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>134</v>
-      </c>
-      <c r="G124" t="s">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4889,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
-      </c>
-      <c r="G125" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4915,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4941,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>152</v>
-      </c>
-      <c r="G127" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4967,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-      <c r="G128" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4993,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>152</v>
-      </c>
-      <c r="G129" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5019,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>24</v>
-      </c>
-      <c r="G130" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5045,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>152</v>
-      </c>
-      <c r="G131" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5071,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-      <c r="G132" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5097,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>152</v>
-      </c>
-      <c r="G133" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5123,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5149,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
+        <v>141</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
         <v>152</v>
-      </c>
-      <c r="G135" t="s">
-        <v>153</v>
-      </c>
-      <c r="H135" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5175,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>24</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5201,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>152</v>
-      </c>
-      <c r="G137" t="s">
-        <v>153</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5227,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>24</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5253,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>168</v>
-      </c>
-      <c r="G139" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5279,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>24</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5305,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>168</v>
-      </c>
-      <c r="G141" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5331,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>24</v>
-      </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5357,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>168</v>
-      </c>
-      <c r="G143" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5383,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5409,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>168</v>
-      </c>
-      <c r="G145" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5435,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>24</v>
-      </c>
-      <c r="G146" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5461,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
-      </c>
-      <c r="G147" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5487,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>24</v>
-      </c>
-      <c r="G148" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5513,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5539,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
+        <v>156</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
         <v>168</v>
-      </c>
-      <c r="G150" t="s">
-        <v>169</v>
-      </c>
-      <c r="H150" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5565,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>168</v>
-      </c>
-      <c r="G151" t="s">
+        <v>156</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
         <v>169</v>
-      </c>
-      <c r="H151" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5591,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5617,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>168</v>
-      </c>
-      <c r="G153" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5643,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-      <c r="G154" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5669,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>168</v>
-      </c>
-      <c r="G155" t="s">
-        <v>169</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5695,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>187</v>
-      </c>
-      <c r="G156" t="s">
-        <v>188</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5721,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5747,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>187</v>
-      </c>
-      <c r="G158" t="s">
-        <v>188</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5773,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5799,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>187</v>
-      </c>
-      <c r="G160" t="s">
-        <v>188</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5825,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-      <c r="G161" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5851,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>187</v>
-      </c>
-      <c r="G162" t="s">
-        <v>188</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5877,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5903,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>197</v>
-      </c>
-      <c r="G164" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5929,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>197</v>
-      </c>
-      <c r="G165" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5955,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>24</v>
-      </c>
-      <c r="G166" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5981,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>197</v>
-      </c>
-      <c r="G167" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6007,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>24</v>
-      </c>
-      <c r="G168" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6033,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>197</v>
-      </c>
-      <c r="G169" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6059,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>24</v>
-      </c>
-      <c r="G170" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6085,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>197</v>
-      </c>
-      <c r="G171" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6111,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>24</v>
-      </c>
-      <c r="G172" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6137,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>197</v>
-      </c>
-      <c r="G173" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6163,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>24</v>
-      </c>
-      <c r="G174" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6189,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>197</v>
-      </c>
-      <c r="G175" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6215,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>24</v>
-      </c>
-      <c r="G176" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6241,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>197</v>
-      </c>
-      <c r="G177" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6267,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>24</v>
-      </c>
-      <c r="G178" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6293,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>197</v>
-      </c>
-      <c r="G179" t="s">
+        <v>183</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
         <v>198</v>
-      </c>
-      <c r="H179" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6319,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G180" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6345,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>197</v>
-      </c>
-      <c r="G181" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6371,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>24</v>
-      </c>
-      <c r="G182" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6397,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>197</v>
-      </c>
-      <c r="G183" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6423,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>24</v>
-      </c>
-      <c r="G184" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6449,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>197</v>
-      </c>
-      <c r="G185" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6475,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>24</v>
-      </c>
-      <c r="G186" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6501,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>197</v>
-      </c>
-      <c r="G187" t="s">
-        <v>198</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6527,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>220</v>
-      </c>
-      <c r="G188" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6553,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>24</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6579,13 +6131,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>220</v>
-      </c>
-      <c r="G190" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6605,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>24</v>
-      </c>
-      <c r="G191" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6631,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>220</v>
-      </c>
-      <c r="G192" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6657,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>24</v>
-      </c>
-      <c r="G193" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6683,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>220</v>
-      </c>
-      <c r="G194" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6709,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>24</v>
-      </c>
-      <c r="G195" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6735,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>220</v>
-      </c>
-      <c r="G196" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6761,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>24</v>
-      </c>
-      <c r="G197" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6787,13 +6323,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>220</v>
-      </c>
-      <c r="G198" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6813,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>24</v>
-      </c>
-      <c r="G199" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6839,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>220</v>
-      </c>
-      <c r="G200" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6865,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>24</v>
-      </c>
-      <c r="G201" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6891,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
+        <v>205</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
         <v>220</v>
-      </c>
-      <c r="G202" t="s">
-        <v>221</v>
-      </c>
-      <c r="H202" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6917,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>24</v>
-      </c>
-      <c r="G203" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6943,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>220</v>
-      </c>
-      <c r="G204" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6969,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>220</v>
-      </c>
-      <c r="G205" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6995,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>24</v>
-      </c>
-      <c r="G206" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7021,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>220</v>
-      </c>
-      <c r="G207" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7047,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7073,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>220</v>
-      </c>
-      <c r="G209" t="s">
-        <v>221</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7099,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>244</v>
-      </c>
-      <c r="G210" t="s">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7125,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>24</v>
-      </c>
-      <c r="G211" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7151,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>244</v>
-      </c>
-      <c r="G212" t="s">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7177,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>24</v>
-      </c>
-      <c r="G213" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7203,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>244</v>
-      </c>
-      <c r="G214" t="s">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7229,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>24</v>
-      </c>
-      <c r="G215" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7255,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>244</v>
-      </c>
-      <c r="G216" t="s">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7281,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>24</v>
-      </c>
-      <c r="G217" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7307,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>244</v>
-      </c>
-      <c r="G218" t="s">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7333,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>24</v>
-      </c>
-      <c r="G219" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7359,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>244</v>
-      </c>
-      <c r="G220" t="s">
-        <v>245</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7385,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>257</v>
-      </c>
-      <c r="G221" t="s">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7411,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>24</v>
-      </c>
-      <c r="G222" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7437,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>257</v>
-      </c>
-      <c r="G223" t="s">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7463,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>24</v>
-      </c>
-      <c r="G224" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7489,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>257</v>
-      </c>
-      <c r="G225" t="s">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7515,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>24</v>
-      </c>
-      <c r="G226" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7541,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>257</v>
-      </c>
-      <c r="G227" t="s">
-        <v>258</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7567,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>266</v>
-      </c>
-      <c r="G228" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7593,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>24</v>
-      </c>
-      <c r="G229" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7619,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>266</v>
-      </c>
-      <c r="G230" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7645,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>24</v>
-      </c>
-      <c r="G231" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7671,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>266</v>
-      </c>
-      <c r="G232" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7697,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>24</v>
-      </c>
-      <c r="G233" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7723,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>266</v>
-      </c>
-      <c r="G234" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7749,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>24</v>
-      </c>
-      <c r="G235" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7775,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>266</v>
-      </c>
-      <c r="G236" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7801,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>24</v>
-      </c>
-      <c r="G237" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7827,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>266</v>
-      </c>
-      <c r="G238" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7853,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>24</v>
-      </c>
-      <c r="G239" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7879,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>266</v>
-      </c>
-      <c r="G240" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7905,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>24</v>
-      </c>
-      <c r="G241" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7931,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>266</v>
-      </c>
-      <c r="G242" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7957,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>24</v>
-      </c>
-      <c r="G243" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7983,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>266</v>
-      </c>
-      <c r="G244" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8009,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>24</v>
-      </c>
-      <c r="G245" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8035,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>266</v>
-      </c>
-      <c r="G246" t="s">
+        <v>248</v>
+      </c>
+      <c r="G246" t="s"/>
+      <c r="H246" t="s">
         <v>267</v>
-      </c>
-      <c r="H246" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8061,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>24</v>
-      </c>
-      <c r="G247" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8087,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>266</v>
-      </c>
-      <c r="G248" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8113,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>24</v>
-      </c>
-      <c r="G249" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8139,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>266</v>
-      </c>
-      <c r="G250" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8165,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>24</v>
-      </c>
-      <c r="G251" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8191,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>266</v>
-      </c>
-      <c r="G252" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8217,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>24</v>
-      </c>
-      <c r="G253" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8243,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>266</v>
-      </c>
-      <c r="G254" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8269,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>24</v>
-      </c>
-      <c r="G255" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8295,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>266</v>
-      </c>
-      <c r="G256" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8321,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>24</v>
-      </c>
-      <c r="G257" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8347,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>266</v>
-      </c>
-      <c r="G258" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8373,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>24</v>
-      </c>
-      <c r="G259" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8399,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>266</v>
-      </c>
-      <c r="G260" t="s">
-        <v>267</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8425,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>24</v>
-      </c>
-      <c r="G261" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8451,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>301</v>
-      </c>
-      <c r="G262" t="s">
-        <v>302</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8477,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>24</v>
-      </c>
-      <c r="G263" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8503,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>301</v>
-      </c>
-      <c r="G264" t="s">
-        <v>302</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8529,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>24</v>
-      </c>
-      <c r="G265" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8555,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>301</v>
-      </c>
-      <c r="G266" t="s">
-        <v>302</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8581,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>24</v>
-      </c>
-      <c r="G267" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8607,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>301</v>
-      </c>
-      <c r="G268" t="s">
-        <v>302</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8633,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>310</v>
-      </c>
-      <c r="G269" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8659,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>24</v>
-      </c>
-      <c r="G270" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8685,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>310</v>
-      </c>
-      <c r="G271" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8711,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>24</v>
-      </c>
-      <c r="G272" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8737,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>310</v>
-      </c>
-      <c r="G273" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8763,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>24</v>
-      </c>
-      <c r="G274" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8789,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>310</v>
-      </c>
-      <c r="G275" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8815,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>24</v>
-      </c>
-      <c r="G276" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8841,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>310</v>
-      </c>
-      <c r="G277" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8867,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>24</v>
-      </c>
-      <c r="G278" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8893,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>310</v>
-      </c>
-      <c r="G279" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -8919,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>24</v>
-      </c>
-      <c r="G280" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -8945,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>310</v>
-      </c>
-      <c r="G281" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8971,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F282" t="s">
-        <v>24</v>
-      </c>
-      <c r="G282" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -8997,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>310</v>
-      </c>
-      <c r="G283" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9023,13 +8387,11 @@
         <v>10</v>
       </c>
       <c r="F284" t="s">
-        <v>24</v>
-      </c>
-      <c r="G284" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9049,13 +8411,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>310</v>
-      </c>
-      <c r="G285" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9075,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>24</v>
-      </c>
-      <c r="G286" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9101,13 +8459,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>310</v>
-      </c>
-      <c r="G287" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9127,13 +8483,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>24</v>
-      </c>
-      <c r="G288" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9153,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>310</v>
-      </c>
-      <c r="G289" t="s">
+        <v>290</v>
+      </c>
+      <c r="G289" t="s"/>
+      <c r="H289" t="s">
         <v>311</v>
-      </c>
-      <c r="H289" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9179,13 +8531,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>24</v>
-      </c>
-      <c r="G290" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9205,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>310</v>
-      </c>
-      <c r="G291" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9231,13 +8579,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>24</v>
-      </c>
-      <c r="G292" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9257,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>310</v>
-      </c>
-      <c r="G293" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9283,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>24</v>
-      </c>
-      <c r="G294" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9309,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>310</v>
-      </c>
-      <c r="G295" t="s">
-        <v>311</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9335,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F296" t="s">
-        <v>24</v>
-      </c>
-      <c r="G296" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9361,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>340</v>
-      </c>
-      <c r="G297" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9387,13 +8723,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>24</v>
-      </c>
-      <c r="G298" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9413,13 +8747,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>340</v>
-      </c>
-      <c r="G299" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9439,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>24</v>
-      </c>
-      <c r="G300" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9465,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>340</v>
-      </c>
-      <c r="G301" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9491,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>24</v>
-      </c>
-      <c r="G302" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9517,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>340</v>
-      </c>
-      <c r="G303" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9543,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>24</v>
-      </c>
-      <c r="G304" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9569,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>340</v>
-      </c>
-      <c r="G305" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9595,13 +8915,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>24</v>
-      </c>
-      <c r="G306" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9621,13 +8939,11 @@
         <v>10</v>
       </c>
       <c r="F307" t="s">
-        <v>340</v>
-      </c>
-      <c r="G307" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9647,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>24</v>
-      </c>
-      <c r="G308" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9673,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F309" t="s">
-        <v>340</v>
-      </c>
-      <c r="G309" t="s">
-        <v>341</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9699,13 +9011,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>355</v>
-      </c>
-      <c r="G310" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9725,13 +9035,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>355</v>
-      </c>
-      <c r="G311" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9751,13 +9059,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>24</v>
-      </c>
-      <c r="G312" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9777,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>355</v>
-      </c>
-      <c r="G313" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9803,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>24</v>
-      </c>
-      <c r="G314" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9829,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>355</v>
-      </c>
-      <c r="G315" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9855,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>24</v>
-      </c>
-      <c r="G316" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9881,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F317" t="s">
-        <v>355</v>
-      </c>
-      <c r="G317" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -9907,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>24</v>
-      </c>
-      <c r="G318" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9933,13 +9227,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>355</v>
-      </c>
-      <c r="G319" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -9959,13 +9251,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>355</v>
-      </c>
-      <c r="G320" t="s">
-        <v>356</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -9985,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F321" t="s">
-        <v>368</v>
-      </c>
-      <c r="G321" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10011,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>24</v>
-      </c>
-      <c r="G322" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10037,13 +9323,11 @@
         <v>10</v>
       </c>
       <c r="F323" t="s">
-        <v>368</v>
-      </c>
-      <c r="G323" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10063,13 +9347,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>24</v>
-      </c>
-      <c r="G324" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10089,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>368</v>
-      </c>
-      <c r="G325" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10115,13 +9395,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>24</v>
-      </c>
-      <c r="G326" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10141,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>368</v>
-      </c>
-      <c r="G327" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10167,13 +9443,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>24</v>
-      </c>
-      <c r="G328" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10193,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>368</v>
-      </c>
-      <c r="G329" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10219,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>24</v>
-      </c>
-      <c r="G330" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10245,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>368</v>
-      </c>
-      <c r="G331" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10271,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>24</v>
-      </c>
-      <c r="G332" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10297,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>368</v>
-      </c>
-      <c r="G333" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10323,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>24</v>
-      </c>
-      <c r="G334" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10349,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F335" t="s">
-        <v>368</v>
-      </c>
-      <c r="G335" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10375,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>24</v>
-      </c>
-      <c r="G336" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10401,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>368</v>
-      </c>
-      <c r="G337" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10427,13 +9683,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>24</v>
-      </c>
-      <c r="G338" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10453,13 +9707,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>368</v>
-      </c>
-      <c r="G339" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10479,13 +9731,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>24</v>
-      </c>
-      <c r="G340" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10505,13 +9755,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>368</v>
-      </c>
-      <c r="G341" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10531,13 +9779,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>24</v>
-      </c>
-      <c r="G342" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10557,13 +9803,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
+        <v>345</v>
+      </c>
+      <c r="G343" t="s"/>
+      <c r="H343" t="s">
         <v>368</v>
-      </c>
-      <c r="G343" t="s">
-        <v>369</v>
-      </c>
-      <c r="H343" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10583,13 +9827,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>24</v>
-      </c>
-      <c r="G344" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10609,13 +9851,11 @@
         <v>10</v>
       </c>
       <c r="F345" t="s">
-        <v>368</v>
-      </c>
-      <c r="G345" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10635,13 +9875,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>24</v>
-      </c>
-      <c r="G346" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10661,13 +9899,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>368</v>
-      </c>
-      <c r="G347" t="s">
-        <v>369</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10687,13 +9923,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>24</v>
-      </c>
-      <c r="G348" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10713,13 +9947,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>24</v>
-      </c>
-      <c r="G349" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10739,13 +9971,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>24</v>
-      </c>
-      <c r="G350" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10765,13 +9995,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>24</v>
-      </c>
-      <c r="G351" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10791,13 +10019,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>24</v>
-      </c>
-      <c r="G352" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10817,13 +10043,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>24</v>
-      </c>
-      <c r="G353" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10843,13 +10067,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>24</v>
-      </c>
-      <c r="G354" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10869,13 +10091,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>24</v>
-      </c>
-      <c r="G355" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10895,13 +10115,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>24</v>
-      </c>
-      <c r="G356" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -10921,13 +10139,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>24</v>
-      </c>
-      <c r="G357" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -10947,13 +10163,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>24</v>
-      </c>
-      <c r="G358" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -10973,13 +10187,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>24</v>
-      </c>
-      <c r="G359" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -10999,13 +10211,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>24</v>
-      </c>
-      <c r="G360" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11025,13 +10235,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>24</v>
-      </c>
-      <c r="G361" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11051,13 +10259,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>24</v>
-      </c>
-      <c r="G362" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11077,13 +10283,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>24</v>
-      </c>
-      <c r="G363" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11103,13 +10307,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>24</v>
-      </c>
-      <c r="G364" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11129,13 +10331,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>24</v>
-      </c>
-      <c r="G365" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11155,13 +10355,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>24</v>
-      </c>
-      <c r="G366" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11181,13 +10379,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>24</v>
-      </c>
-      <c r="G367" t="s">
-        <v>29</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11207,13 +10403,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>24</v>
-      </c>
-      <c r="G368" t="s">
-        <v>32</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11235,11 +10429,9 @@
       <c r="F369" t="s">
         <v>11</v>
       </c>
-      <c r="G369" t="s">
-        <v>12</v>
-      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11261,11 +10453,9 @@
       <c r="F370" t="s">
         <v>11</v>
       </c>
-      <c r="G370" t="s">
-        <v>12</v>
-      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11287,11 +10477,9 @@
       <c r="F371" t="s">
         <v>11</v>
       </c>
-      <c r="G371" t="s">
-        <v>12</v>
-      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11311,13 +10499,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>24</v>
-      </c>
-      <c r="G372" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11339,11 +10525,9 @@
       <c r="F373" t="s">
         <v>11</v>
       </c>
-      <c r="G373" t="s">
-        <v>12</v>
-      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11363,13 +10547,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>24</v>
-      </c>
-      <c r="G374" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11389,13 +10571,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>24</v>
-      </c>
-      <c r="G375" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11415,13 +10595,11 @@
         <v>10</v>
       </c>
       <c r="F376" t="s">
-        <v>24</v>
-      </c>
-      <c r="G376" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11441,13 +10619,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>24</v>
-      </c>
-      <c r="G377" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
